--- a/tempo.xlsx
+++ b/tempo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Setup\DataEngineering\5.CapstoneProject\DataEngineering-CapstoneProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1EB693B-00F3-4789-BCE3-2A0680A7D843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD7C492-A372-49D0-81DB-8D381CFFB5F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32280" yWindow="9390" windowWidth="29040" windowHeight="15840" xr2:uid="{18A3CC0E-FCED-47F4-827B-F23FDCE5325B}"/>
+    <workbookView xWindow="90" yWindow="135" windowWidth="15780" windowHeight="20715" xr2:uid="{18A3CC0E-FCED-47F4-827B-F23FDCE5325B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -788,8 +788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92140734-A960-48E3-8154-4B0139E3CD48}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -854,7 +854,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>36</v>
       </c>
